--- a/datasheets/Birth Record.xlsx
+++ b/datasheets/Birth Record.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davebrid/Documents/GitHub/mousedb/datasheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="15180" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="25940" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -81,16 +94,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -120,6 +133,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -166,12 +184,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -198,14 +216,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -232,6 +251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,24 +427,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="75" customHeight="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -450,7 +470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -460,7 +480,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -470,7 +490,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -480,7 +500,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -490,7 +510,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -500,7 +520,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -510,7 +530,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -520,7 +540,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -530,7 +550,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -540,7 +560,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -550,7 +570,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -560,7 +580,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -570,7 +590,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -580,7 +600,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -590,7 +610,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -600,7 +620,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -610,7 +630,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -620,7 +640,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -630,7 +650,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -640,7 +660,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -650,7 +670,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -660,7 +680,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -670,7 +690,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -680,7 +700,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -690,7 +710,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -700,7 +720,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -710,7 +730,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -720,7 +740,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -730,7 +750,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -740,187 +760,187 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -938,24 +958,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="70.5">
+    <row r="1" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -981,7 +1002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -991,7 +1012,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1001,7 +1022,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1011,7 +1032,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1021,7 +1042,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1031,7 +1052,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1041,7 +1062,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1051,7 +1072,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1061,7 +1082,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1071,7 +1092,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1081,7 +1102,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1091,7 +1112,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1101,7 +1122,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1111,7 +1132,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1121,7 +1142,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1131,7 +1152,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1141,7 +1162,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1151,7 +1172,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1161,7 +1182,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1171,7 +1192,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1181,7 +1202,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1191,7 +1212,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1201,7 +1222,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1211,7 +1232,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1221,7 +1242,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1231,7 +1252,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1241,7 +1262,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1251,7 +1272,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1261,7 +1282,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1271,7 +1292,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1281,7 +1302,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1291,7 +1312,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1301,7 +1322,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1311,7 +1332,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1321,7 +1342,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1331,7 +1352,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1341,7 +1362,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1351,7 +1372,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1361,7 +1382,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1371,7 +1392,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1381,7 +1402,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1391,7 +1412,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1401,7 +1422,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1411,7 +1432,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1421,41 +1442,21 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" copies="5" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
